--- a/roadmaps/BSSE.xlsx
+++ b/roadmaps/BSSE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/roadmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4EC8F49-8330-49AC-9AB6-B304665D1D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{E4EC8F49-8330-49AC-9AB6-B304665D1D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35DC14B-808C-4FC5-AE8A-A0279CA12251}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{F459EF9F-2A88-4E6A-8CB1-B148DF59868A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
   <si>
     <t>semester</t>
   </si>
@@ -195,54 +195,12 @@
     <t>room_type</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>theory</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>Lab1</t>
-  </si>
-  <si>
     <t>lab</t>
   </si>
   <si>
-    <t>Lab2</t>
-  </si>
-  <si>
-    <t>Lab3</t>
-  </si>
-  <si>
-    <t>Lab4</t>
-  </si>
-  <si>
-    <t>Lab5</t>
-  </si>
-  <si>
-    <t>Lab6</t>
-  </si>
-  <si>
     <t>PhysicsLab1</t>
   </si>
   <si>
@@ -388,13 +346,46 @@
   </si>
   <si>
     <t>University Elective II</t>
+  </si>
+  <si>
+    <t>SE_Room1</t>
+  </si>
+  <si>
+    <t>SE_Room2</t>
+  </si>
+  <si>
+    <t>SE_Room3</t>
+  </si>
+  <si>
+    <t>SE_Room4</t>
+  </si>
+  <si>
+    <t>SE_Room5</t>
+  </si>
+  <si>
+    <t>SE_Room6</t>
+  </si>
+  <si>
+    <t>SE_Room7</t>
+  </si>
+  <si>
+    <t>SE_Lab1</t>
+  </si>
+  <si>
+    <t>SE_Lab2</t>
+  </si>
+  <si>
+    <t>SE_Lab3</t>
+  </si>
+  <si>
+    <t>SE_Lab4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +523,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -943,6 +940,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62957184-BBA0-438F-8BF1-B1D84A59C139}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1364,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
@@ -1378,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -1395,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1412,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>0</v>
@@ -1466,7 +1467,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>0</v>
@@ -1500,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>0</v>
@@ -1548,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
@@ -1803,10 +1804,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="b">
         <v>0</v>
@@ -1820,10 +1821,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="b">
         <v>1</v>
@@ -1837,10 +1838,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="b">
         <v>0</v>
@@ -1854,10 +1855,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="b">
         <v>1</v>
@@ -1871,10 +1872,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="b">
         <v>0</v>
@@ -1888,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="b">
         <v>0</v>
@@ -1905,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2" t="b">
         <v>0</v>
@@ -1922,10 +1923,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="b">
         <v>0</v>
@@ -1939,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="b">
         <v>0</v>
@@ -1956,10 +1957,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>0</v>
@@ -1973,10 +1974,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="b">
         <v>0</v>
@@ -1990,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2" t="b">
         <v>0</v>
@@ -2007,10 +2008,10 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="b">
         <v>0</v>
@@ -2024,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D45" s="2" t="b">
         <v>0</v>
@@ -2041,10 +2042,10 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="b">
         <v>0</v>
@@ -2058,10 +2059,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="b">
         <v>0</v>
@@ -2075,10 +2076,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D48" s="3" t="b">
         <v>0</v>
@@ -2094,13 +2095,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E74563-0568-487F-BB23-56B37A40D077}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2112,63 +2116,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2176,85 +2180,62 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2264,7 +2245,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2282,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2290,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2306,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
